--- a/IDCO云服务/一期讨论/iDoc Cloud功能清单.xlsx
+++ b/IDCO云服务/一期讨论/iDoc Cloud功能清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840"/>
+    <workbookView windowWidth="24000" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="iDoc Cloud一期功能列表" sheetId="1" r:id="rId1"/>
@@ -222,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -253,12 +253,81 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,18 +341,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,6 +366,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -317,46 +386,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,37 +400,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -416,19 +416,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,25 +500,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,127 +542,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,6 +752,21 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,6 +776,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,6 +812,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -804,32 +845,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -838,172 +853,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1068,6 +1068,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1400,15 +1412,15 @@
   <sheetPr/>
   <dimension ref="B1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10.8333333333333" style="1"/>
     <col min="2" max="2" width="13.6666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="124.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="123.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.8333333333333" style="1"/>
   </cols>
@@ -1661,7 +1673,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" ht="15" spans="2:3">
       <c r="B42" s="20"/>
       <c r="C42" s="21" t="s">
         <v>43</v>
@@ -1672,97 +1684,97 @@
       <c r="B44" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="18"/>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="18"/>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="18"/>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="18"/>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="18"/>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="18"/>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="18"/>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="18"/>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="18"/>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="23" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="18"/>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="18"/>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="18"/>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="18"/>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="18"/>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="59" ht="15" spans="2:3">
       <c r="B59" s="20"/>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="25" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1771,31 +1783,31 @@
       <c r="B61" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="18"/>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="27" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="18"/>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="27" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="18"/>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" ht="15" spans="2:3">
+    <row r="65" spans="2:3">
       <c r="B65" s="20"/>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="28" t="s">
         <v>66</v>
       </c>
     </row>

--- a/IDCO云服务/一期讨论/iDoc Cloud功能清单.xlsx
+++ b/IDCO云服务/一期讨论/iDoc Cloud功能清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765"/>
+    <workbookView windowWidth="24300" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="iDoc Cloud一期功能列表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>功能模块</t>
   </si>
@@ -40,21 +40,21 @@
     <t>档案盘首页</t>
   </si>
   <si>
-    <t>文档管理</t>
+    <t>二、文档管理</t>
   </si>
   <si>
     <t>文档查询</t>
   </si>
   <si>
-    <t>文档增删改查</t>
-  </si>
-  <si>
     <t>文档列表</t>
   </si>
   <si>
     <t>文档上传（考虑基于文档本身分类权限之外的单独授权）</t>
   </si>
   <si>
+    <t>2、文档上传</t>
+  </si>
+  <si>
     <t>文档更新</t>
   </si>
   <si>
@@ -112,6 +112,34 @@
     <t>文档分类管理（权限、分类文档属性、分享范围、发布审批、临时授权审批）</t>
   </si>
   <si>
+    <t>1、文档分类管理（系统、部门、分类管理员）</t>
+  </si>
+  <si>
+    <r>
+      <t>由系统管理员创建一级分类（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分类表、部门表绑定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>），部门管理员可以创建二级以下的分类，分类管理员可以创建子分类</t>
+    </r>
+  </si>
+  <si>
     <t>项目管理</t>
   </si>
   <si>
@@ -148,55 +176,151 @@
     <t>档案打包及下载</t>
   </si>
   <si>
-    <t>系统管理</t>
+    <t>一、系统管理</t>
   </si>
   <si>
     <t>公司信息维护</t>
   </si>
   <si>
+    <t>1.公司信息维护（系统管理员）</t>
+  </si>
+  <si>
+    <t>公司名称、logo、简介</t>
+  </si>
+  <si>
     <t>组织架构维护（部门、人员、岗位、职级、职能）可以按照部门设置允许存放的空间，人员支持从模版导入或者直接与LDAP集成导入</t>
   </si>
   <si>
+    <t>2、人员设置（系统管理员）</t>
+  </si>
+  <si>
+    <t>手动添加、批量导入（固定的模板）、人员初次登录要绑定邮箱</t>
+  </si>
+  <si>
     <t>系统群组管理</t>
   </si>
   <si>
+    <t>3、群组管理（系统管理员、部门管理员）</t>
+  </si>
+  <si>
+    <t>系统管理员可指定任何人、部门管理员只能指定部门人员拉成一个群组</t>
+  </si>
+  <si>
     <t>部门群组管理</t>
   </si>
   <si>
+    <t>4、部门群组（系统管理员）</t>
+  </si>
+  <si>
+    <t>系统管理员指定公司的部门（如部门1、部门2），变成一个群组</t>
+  </si>
+  <si>
     <t>菜单管理</t>
   </si>
   <si>
+    <t>5、菜单管理（开发人员可看）</t>
+  </si>
+  <si>
+    <t>考虑到客户不会配置等问题，所以我们准备一套通用的菜单</t>
+  </si>
+  <si>
     <t>角色管理</t>
   </si>
   <si>
+    <t>6、角色管理（系统管理员）</t>
+  </si>
+  <si>
+    <t>设置使用系统的角色，如分类管理员</t>
+  </si>
+  <si>
     <t>角色授权</t>
   </si>
   <si>
+    <t>7、角色授权（系统管理员）</t>
+  </si>
+  <si>
+    <t>系统角色绑定人员，菜单列表根据角色进行显示与不显示</t>
+  </si>
+  <si>
     <t>菜单授权</t>
   </si>
   <si>
+    <t>8、菜单授权（系统管理员）</t>
+  </si>
+  <si>
+    <t>设置不同的系统角色可见不一样的菜单列表</t>
+  </si>
+  <si>
     <t>公司文档属性管理</t>
   </si>
   <si>
+    <t>9、公司文档属性管理（系统管理员）</t>
+  </si>
+  <si>
+    <t>公司上传文档的通用模板</t>
+  </si>
+  <si>
     <t>部门文档属性管理</t>
   </si>
   <si>
+    <t>？、部门文档属性管理（系统、部门分类管理员）</t>
+  </si>
+  <si>
+    <t>设置部门分类（一级分类的通用模板）</t>
+  </si>
+  <si>
     <t>邮件激活</t>
   </si>
   <si>
+    <t>10、邮件激活（邮件的更换，建议放在个人中心）</t>
+  </si>
+  <si>
+    <t>公司员工初次登录强制绑定邮箱，验证并修改初始密码，并在个人中心可更绑邮箱</t>
+  </si>
+  <si>
     <t>找回密码</t>
   </si>
   <si>
+    <t>11、找回密码（建议放在个人中心）</t>
+  </si>
+  <si>
+    <t>根据绑定的邮箱，收到验证码进行判断修改密码</t>
+  </si>
+  <si>
     <t>首页教程/通知推送</t>
   </si>
   <si>
+    <t>12、通知推送（系统管理员）、使用教程（争议）</t>
+  </si>
+  <si>
+    <t>通知推送由系统管理员发布通知给任何员工</t>
+  </si>
+  <si>
     <t>意见与BUG反馈</t>
   </si>
   <si>
+    <t>13、意见与bug反馈（所有人员）</t>
+  </si>
+  <si>
+    <t>操作系统的所有人都可以发布意见与bug反馈，由系统管理员查看</t>
+  </si>
+  <si>
     <t>部门管理员授权</t>
   </si>
   <si>
+    <t>？、部门管理员授权（系统管理员）争议，是否所有人都可以做</t>
+  </si>
+  <si>
+    <t>对文档的一级分类设置管理员</t>
+  </si>
+  <si>
     <t>分类管理员授权</t>
+  </si>
+  <si>
+    <t>？、分类管理员（系统、部门、分类管理员）</t>
+  </si>
+  <si>
+    <t>父级管理员创建分类的时候可以设置分类管理员</t>
   </si>
   <si>
     <t>统计报表</t>
@@ -223,11 +347,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -379,8 +503,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,13 +518,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -416,6 +547,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,163 +721,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,149 +992,149 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,82 +1144,88 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1410,416 +1547,870 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D65"/>
+  <dimension ref="B2:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.8333333333333" style="1"/>
-    <col min="2" max="2" width="13.6666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="123.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.8333333333333" style="1"/>
+    <col min="2" max="2" width="31.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="62.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="10" width="10.8333333333333" style="1"/>
+    <col min="11" max="11" width="17.75" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.8333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="3:3">
-      <c r="C1" s="3"/>
-    </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="2:3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="15" spans="3:3">
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="7"/>
+      <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="6"/>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="7"/>
+      <c r="C11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="6"/>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="6"/>
-      <c r="C12" s="12" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="7"/>
+      <c r="C12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="6"/>
-      <c r="C13" s="12" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="7"/>
+      <c r="C13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="6"/>
-      <c r="C14" s="12" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="7"/>
+      <c r="C14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="13" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="7"/>
+      <c r="C15" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="13" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="7"/>
+      <c r="C16" s="16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="13" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="7"/>
+      <c r="C17" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="14" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="7"/>
+      <c r="C18" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="14" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="7"/>
+      <c r="C19" s="16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="13" t="s">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="7"/>
+      <c r="C20" s="16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="13" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="7"/>
+      <c r="C21" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="13" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="7"/>
+      <c r="C22" s="16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="13" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="7"/>
+      <c r="C23" s="16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="13" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="7"/>
+      <c r="C24" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="13" t="s">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="7"/>
+      <c r="C25" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="13" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="7"/>
+      <c r="C26" s="16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="13" t="s">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="7"/>
+      <c r="C27" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="13" t="s">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="7"/>
+      <c r="C28" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="13" t="s">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="7"/>
+      <c r="C29" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" ht="15" spans="2:3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="15" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" ht="15" spans="2:11">
+      <c r="B30" s="9"/>
+      <c r="C30" s="17" t="s">
         <v>31</v>
       </c>
+      <c r="D30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
     </row>
     <row r="31" ht="15"/>
     <row r="32" spans="2:3">
-      <c r="B32" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>33</v>
+      <c r="B32" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="18"/>
-      <c r="C33" s="19" t="s">
-        <v>34</v>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="18"/>
-      <c r="C34" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="2:3">
-      <c r="B35" s="20"/>
-      <c r="C35" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" ht="15"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="24"/>
+      <c r="C35" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>38</v>
+      <c r="B37" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="18"/>
-      <c r="C38" s="19" t="s">
-        <v>39</v>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="18"/>
-      <c r="C39" s="19" t="s">
-        <v>40</v>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="18"/>
-      <c r="C40" s="19" t="s">
-        <v>41</v>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="18"/>
-      <c r="C41" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" ht="15" spans="2:3">
-      <c r="B42" s="20"/>
-      <c r="C42" s="21" t="s">
-        <v>43</v>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="43" ht="15"/>
-    <row r="44" spans="2:3">
-      <c r="B44" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="18"/>
+    <row r="44" spans="2:8">
+      <c r="B44" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="22"/>
       <c r="C45" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="22"/>
       <c r="C46" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="22"/>
       <c r="C47" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="22"/>
       <c r="C48" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="18"/>
+        <v>59</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="22"/>
       <c r="C49" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="18"/>
+        <v>62</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="22"/>
       <c r="C50" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="18"/>
+        <v>65</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="22"/>
       <c r="C51" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="18"/>
-      <c r="C52" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="22"/>
+      <c r="C52" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="22"/>
       <c r="C53" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="18"/>
-      <c r="C54" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="18"/>
-      <c r="C55" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="18"/>
+        <v>74</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="22"/>
+      <c r="C55" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="22"/>
       <c r="C56" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="18"/>
+        <v>80</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="22"/>
       <c r="C57" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="18"/>
+        <v>83</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="22"/>
       <c r="C58" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" ht="15" spans="2:3">
-      <c r="B59" s="20"/>
-      <c r="C59" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" ht="15"/>
-    <row r="61" spans="2:3">
-      <c r="B61" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="18"/>
-      <c r="C62" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="18"/>
-      <c r="C63" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="18"/>
-      <c r="C64" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="20"/>
-      <c r="C65" s="28" t="s">
-        <v>66</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="22"/>
+      <c r="C59" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+    </row>
+    <row r="60" ht="15" spans="2:11">
+      <c r="B60" s="24"/>
+      <c r="C60" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+    </row>
+    <row r="61" ht="15" spans="5:11">
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="22"/>
+      <c r="C63" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="22"/>
+      <c r="C64" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" s="22"/>
+      <c r="C65" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+    </row>
+    <row r="66" ht="15" spans="2:11">
+      <c r="B66" s="24"/>
+      <c r="C66" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+    </row>
+    <row r="67" spans="5:11">
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="51">
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:K45"/>
+    <mergeCell ref="E46:K46"/>
+    <mergeCell ref="E47:K47"/>
+    <mergeCell ref="E48:K48"/>
+    <mergeCell ref="E49:K49"/>
+    <mergeCell ref="E50:K50"/>
+    <mergeCell ref="E51:K51"/>
+    <mergeCell ref="E52:K52"/>
+    <mergeCell ref="E53:K53"/>
+    <mergeCell ref="E55:K55"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="E57:K57"/>
+    <mergeCell ref="E58:K58"/>
+    <mergeCell ref="E59:K59"/>
+    <mergeCell ref="E60:K60"/>
+    <mergeCell ref="E61:K61"/>
+    <mergeCell ref="E62:K62"/>
+    <mergeCell ref="E63:K63"/>
+    <mergeCell ref="E64:K64"/>
+    <mergeCell ref="E65:K65"/>
+    <mergeCell ref="E66:K66"/>
+    <mergeCell ref="E67:K67"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B9:B30"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B44:B59"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="B44:B60"/>
+    <mergeCell ref="B62:B66"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/IDCO云服务/一期讨论/iDoc Cloud功能清单.xlsx
+++ b/IDCO云服务/一期讨论/iDoc Cloud功能清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24300" windowHeight="9405"/>
+    <workbookView windowWidth="24000" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="iDoc Cloud一期功能列表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
   <si>
     <t>功能模块</t>
   </si>
@@ -46,66 +46,150 @@
     <t>文档查询</t>
   </si>
   <si>
+    <t>4、文档查询</t>
+  </si>
+  <si>
+    <t>模糊查询想要查找的文档，分部门查询和全公司查询，看不到的能不能查？</t>
+  </si>
+  <si>
     <t>文档列表</t>
   </si>
   <si>
+    <t>2、文档列表（1）</t>
+  </si>
+  <si>
+    <t>显示该分类有哪些文档，列表显示，附带分享、收藏、下载、转pdf、预览等功能</t>
+  </si>
+  <si>
     <t>文档上传（考虑基于文档本身分类权限之外的单独授权）</t>
   </si>
   <si>
-    <t>2、文档上传</t>
+    <t>3、文档上传（权限模板：更新等）、文档更新</t>
+  </si>
+  <si>
+    <t>只有更新权限的人可以上传，并且只能在最小分类上传</t>
   </si>
   <si>
     <t>文档更新</t>
   </si>
   <si>
+    <t>4、文档维护（更新、作废）</t>
+  </si>
+  <si>
+    <t>对自己上传的文档进行更新、作废，上级管理员可以操作下级的</t>
+  </si>
+  <si>
     <t>文档作废</t>
   </si>
   <si>
     <t>批量上传（考虑基于文档本身分类权限之外的单独授权）</t>
   </si>
   <si>
+    <t>5、批量上传</t>
+  </si>
+  <si>
     <t>批量下载</t>
   </si>
   <si>
-    <t>文档分享（支持二维码分享）</t>
-  </si>
-  <si>
-    <t>文档预览</t>
+    <t>12、批量下载</t>
+  </si>
+  <si>
+    <t>2、文档分享（支持二维码分享）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、文档分享（2） </t>
+  </si>
+  <si>
+    <t>分享要不要审批？</t>
+  </si>
+  <si>
+    <t>2、文档预览</t>
+  </si>
+  <si>
+    <t>2、文档预览（2）</t>
   </si>
   <si>
     <t>临时权限申请</t>
   </si>
   <si>
+    <t>2、临时权限申请（2）</t>
+  </si>
+  <si>
     <t>文档发布审批</t>
   </si>
   <si>
+    <t>5、文档发布审批</t>
+  </si>
+  <si>
+    <t>一二三级审批，创建子分类的时候设置</t>
+  </si>
+  <si>
     <t>文档作废审批</t>
   </si>
   <si>
-    <t>文档分享（需考虑对内/外两种情况）</t>
+    <t>6、文档作废审批</t>
+  </si>
+  <si>
+    <t>删除文档时，由部门管理员同意审批</t>
+  </si>
+  <si>
+    <t>2、文档分享（需考虑对内/外两种情况）</t>
   </si>
   <si>
     <t>临时授权审批</t>
   </si>
   <si>
+    <t>7、临时授权审批</t>
+  </si>
+  <si>
+    <t>对子分类没有阅读、下载权限的人，查看文件时需要通过临时审批</t>
+  </si>
+  <si>
     <t>文档推送</t>
   </si>
   <si>
+    <t>8、文档推送</t>
+  </si>
+  <si>
+    <t>可以对部门群组，系统群组以及指定的人员推送；问题：怎么对文件开放一个群组使用，不用群组的人都申请审批</t>
+  </si>
+  <si>
     <t>文档收藏</t>
   </si>
   <si>
+    <t>9、文档收藏</t>
+  </si>
+  <si>
+    <t>收藏自己常用的文档</t>
+  </si>
+  <si>
     <t>邮件转发</t>
   </si>
   <si>
+    <t>10、邮件转发</t>
+  </si>
+  <si>
+    <t>类似通过邮箱分享</t>
+  </si>
+  <si>
     <t>项目文档基线管理</t>
   </si>
   <si>
+    <t>11、找回密码（建议放在个人中心）</t>
+  </si>
+  <si>
     <t>项目文档基线查看和文档预览</t>
   </si>
   <si>
+    <t>文档管理需要设置基线？</t>
+  </si>
+  <si>
     <t>文档归档</t>
   </si>
   <si>
+    <t>什么意思？</t>
+  </si>
+  <si>
     <t>归档文档查看</t>
   </si>
   <si>
@@ -116,6 +200,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>由系统管理员创建一级分类（</t>
     </r>
     <r>
@@ -146,15 +237,72 @@
     <t>创建项目（项目的创建需要基于项目模版和项目角色）</t>
   </si>
   <si>
+    <t>3、创建项目</t>
+  </si>
+  <si>
+    <t>创建项目分类</t>
+  </si>
+  <si>
+    <t>1、创建项目分类（系统管理员）</t>
+  </si>
+  <si>
+    <t>创建一级分类（按部门创建）</t>
+  </si>
+  <si>
+    <t>文档维护</t>
+  </si>
+  <si>
+    <t>7、文档维护</t>
+  </si>
+  <si>
+    <t>对上传的文档进行维护</t>
+  </si>
+  <si>
+    <t>项目基线</t>
+  </si>
+  <si>
+    <t>5、项目基线</t>
+  </si>
+  <si>
+    <t>设置项目基线</t>
+  </si>
+  <si>
     <t>项目模版管理（按照项目类型维护模版）</t>
   </si>
   <si>
+    <t>6、项目模板管理</t>
+  </si>
+  <si>
+    <t>设置项目文件上传模板</t>
+  </si>
+  <si>
     <t>项目角色管理</t>
   </si>
   <si>
+    <t>2、项目角色管理（系统管理员）</t>
+  </si>
+  <si>
+    <t>设置项目角色，如：项目经理，副经理，组员。问题是：角色都要绑定到一级分类吗？不能统一角色？</t>
+  </si>
+  <si>
+    <t>SDT成员管理</t>
+  </si>
+  <si>
+    <t>3、SDT成员管理（）</t>
+  </si>
+  <si>
+    <t>项目的成员添加，并绑定角色</t>
+  </si>
+  <si>
     <t>特殊授权管理</t>
   </si>
   <si>
+    <t>4、特殊授权管理</t>
+  </si>
+  <si>
+    <t>设置特殊特权的人</t>
+  </si>
+  <si>
     <t>档案管理</t>
   </si>
   <si>
@@ -279,9 +427,6 @@
   </si>
   <si>
     <t>找回密码</t>
-  </si>
-  <si>
-    <t>11、找回密码（建议放在个人中心）</t>
   </si>
   <si>
     <t>根据绑定的邮箱，收到验证码进行判断修改密码</t>
@@ -347,9 +492,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -375,15 +520,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,25 +555,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,15 +570,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,9 +586,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,14 +617,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,15 +655,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,7 +677,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,187 +686,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,41 +1038,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,13 +1062,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,6 +1101,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -992,10 +1143,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1004,137 +1155,137 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1177,19 +1328,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1207,17 +1367,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1547,24 +1716,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:K67"/>
+  <dimension ref="B1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.8333333333333" style="1"/>
-    <col min="2" max="2" width="31.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="61.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="62.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
     <col min="6" max="10" width="10.8333333333333" style="1"/>
-    <col min="11" max="11" width="17.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.8333333333333" style="1"/>
+    <col min="11" max="11" width="40.75" style="1" customWidth="1"/>
+    <col min="12" max="16383" width="10.8333333333333" style="1"/>
+    <col min="16384" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="15"/>
     <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -1599,7 +1770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" ht="15" spans="2:3">
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
         <v>7</v>
@@ -1615,8 +1786,12 @@
       <c r="C9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1627,94 +1802,114 @@
     <row r="10" spans="2:11">
       <c r="B10" s="7"/>
       <c r="C10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="7"/>
       <c r="C11" s="15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="7"/>
       <c r="C12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="7"/>
       <c r="C13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="7"/>
       <c r="C14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="7"/>
-      <c r="C15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="C15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="7"/>
-      <c r="C16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="14"/>
+      <c r="C16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -1724,88 +1919,114 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="7"/>
-      <c r="C17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="C17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="7"/>
-      <c r="C18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="C18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="7"/>
-      <c r="C19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="C19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="7"/>
-      <c r="C20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="C20" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="7"/>
-      <c r="C21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="C21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="7"/>
-      <c r="C22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
+      <c r="C22" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="7"/>
-      <c r="C23" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="14"/>
+      <c r="C23" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -1815,551 +2036,712 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="7"/>
-      <c r="C24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
+      <c r="C24" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="7"/>
-      <c r="C25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
+      <c r="C25" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="7"/>
-      <c r="C26" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
+      <c r="C26" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="7"/>
-      <c r="C27" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="C27" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="7"/>
-      <c r="C28" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
+      <c r="C28" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="7"/>
-      <c r="C29" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
+      <c r="C29" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
     </row>
     <row r="30" ht="15" spans="2:11">
       <c r="B30" s="9"/>
-      <c r="C30" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" ht="15"/>
-    <row r="32" spans="2:3">
-      <c r="B32" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="22"/>
-      <c r="C33" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="22"/>
-      <c r="C34" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="24"/>
-      <c r="C35" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="22"/>
-      <c r="C38" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="22"/>
-      <c r="C39" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="22"/>
-      <c r="C40" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="22"/>
-      <c r="C41" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="24"/>
-      <c r="C42" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" ht="15"/>
-    <row r="44" spans="2:8">
-      <c r="B44" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="22"/>
-      <c r="C45" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="22"/>
-      <c r="C46" s="23" t="s">
+      <c r="C30" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="32" ht="15"/>
+    <row r="33" spans="2:4">
+      <c r="B33" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="25"/>
+      <c r="C34" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="25"/>
+      <c r="C36" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="27"/>
+      <c r="C37" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="27"/>
+      <c r="C38" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="29"/>
+      <c r="C39" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+    </row>
+    <row r="40" ht="15" spans="2:11">
+      <c r="B40" s="31"/>
+      <c r="C40" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+    </row>
+    <row r="41" ht="15" spans="5:11">
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="27"/>
+      <c r="C43" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="27"/>
+      <c r="C44" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="27"/>
+      <c r="C45" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="27"/>
+      <c r="C46" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="2:3">
+      <c r="B47" s="31"/>
+      <c r="C47" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" ht="15"/>
+    <row r="49" spans="2:8">
+      <c r="B49" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="27"/>
+      <c r="C50" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="27"/>
+      <c r="C51" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="27"/>
+      <c r="C52" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="27"/>
+      <c r="C53" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="27"/>
+      <c r="C54" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="27"/>
+      <c r="C55" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="27"/>
+      <c r="C56" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="27"/>
+      <c r="C57" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="27"/>
+      <c r="C58" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="27"/>
+      <c r="C59" s="28"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="27"/>
+      <c r="C60" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="27"/>
+      <c r="C61" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="22"/>
-      <c r="C47" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="22"/>
-      <c r="C48" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="22"/>
-      <c r="C49" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="22"/>
-      <c r="C50" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="22"/>
-      <c r="C51" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="22"/>
-      <c r="C52" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="22"/>
-      <c r="C53" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="22"/>
-      <c r="C55" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="22"/>
-      <c r="C56" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="22"/>
-      <c r="C57" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="22"/>
-      <c r="C58" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="22"/>
-      <c r="C59" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-    </row>
-    <row r="60" ht="15" spans="2:11">
-      <c r="B60" s="24"/>
-      <c r="C60" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-    </row>
-    <row r="61" ht="15" spans="5:11">
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
+      <c r="E61" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="B62" s="27"/>
       <c r="C62" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
+        <v>129</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="22"/>
-      <c r="C63" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" s="22"/>
-      <c r="C64" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="B65" s="22"/>
-      <c r="C65" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-    </row>
-    <row r="66" ht="15" spans="2:11">
-      <c r="B66" s="24"/>
-      <c r="C66" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-    </row>
-    <row r="67" spans="5:11">
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+    </row>
+    <row r="65" ht="15" spans="2:11">
+      <c r="B65" s="31"/>
+      <c r="C65" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+    </row>
+    <row r="66" ht="15" spans="5:11">
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" s="27"/>
+      <c r="C68" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69" s="27"/>
+      <c r="C69" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70" s="27"/>
+      <c r="C70" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+    </row>
+    <row r="71" ht="15" spans="2:11">
+      <c r="B71" s="31"/>
+      <c r="C71" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+    </row>
+    <row r="72" spans="5:11">
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="63">
     <mergeCell ref="E9:K9"/>
     <mergeCell ref="E10:K10"/>
     <mergeCell ref="E11:K11"/>
@@ -2382,21 +2764,27 @@
     <mergeCell ref="E28:K28"/>
     <mergeCell ref="E29:K29"/>
     <mergeCell ref="E30:K30"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:K45"/>
-    <mergeCell ref="E46:K46"/>
-    <mergeCell ref="E47:K47"/>
-    <mergeCell ref="E48:K48"/>
-    <mergeCell ref="E49:K49"/>
+    <mergeCell ref="E34:K34"/>
+    <mergeCell ref="E35:K35"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="E37:K37"/>
+    <mergeCell ref="E38:K38"/>
+    <mergeCell ref="E39:K39"/>
+    <mergeCell ref="E40:K40"/>
+    <mergeCell ref="E41:K41"/>
+    <mergeCell ref="E42:K42"/>
+    <mergeCell ref="E43:K43"/>
+    <mergeCell ref="E44:K44"/>
+    <mergeCell ref="E49:H49"/>
     <mergeCell ref="E50:K50"/>
     <mergeCell ref="E51:K51"/>
     <mergeCell ref="E52:K52"/>
     <mergeCell ref="E53:K53"/>
+    <mergeCell ref="E54:K54"/>
     <mergeCell ref="E55:K55"/>
     <mergeCell ref="E56:K56"/>
     <mergeCell ref="E57:K57"/>
     <mergeCell ref="E58:K58"/>
-    <mergeCell ref="E59:K59"/>
     <mergeCell ref="E60:K60"/>
     <mergeCell ref="E61:K61"/>
     <mergeCell ref="E62:K62"/>
@@ -2405,12 +2793,18 @@
     <mergeCell ref="E65:K65"/>
     <mergeCell ref="E66:K66"/>
     <mergeCell ref="E67:K67"/>
+    <mergeCell ref="E68:K68"/>
+    <mergeCell ref="E69:K69"/>
+    <mergeCell ref="E70:K70"/>
+    <mergeCell ref="E71:K71"/>
+    <mergeCell ref="E72:K72"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B9:B30"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B44:B60"/>
-    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="B49:B65"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/IDCO云服务/一期讨论/iDoc Cloud功能清单.xlsx
+++ b/IDCO云服务/一期讨论/iDoc Cloud功能清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
   <si>
     <t>功能模块</t>
   </si>
@@ -187,10 +187,13 @@
     <t>文档归档</t>
   </si>
   <si>
-    <t>什么意思？</t>
-  </si>
-  <si>
     <t>归档文档查看</t>
+  </si>
+  <si>
+    <t>？？？</t>
+  </si>
+  <si>
+    <t>归档状态。部门管理员，如过期文件</t>
   </si>
   <si>
     <t>文档分类管理（权限、分类文档属性、分享范围、发布审批、临时授权审批）</t>
@@ -231,7 +234,7 @@
     </r>
   </si>
   <si>
-    <t>项目管理</t>
+    <t>三、项目管理</t>
   </si>
   <si>
     <t>创建项目（项目的创建需要基于项目模版和项目角色）</t>
@@ -303,27 +306,60 @@
     <t>设置特殊特权的人</t>
   </si>
   <si>
-    <t>档案管理</t>
+    <t>四、档案管理</t>
   </si>
   <si>
     <t>存储位置管理</t>
   </si>
   <si>
+    <t>1、存储位置管理</t>
+  </si>
+  <si>
+    <t>能看到的人就可以建文档室、文档柜</t>
+  </si>
+  <si>
     <t>档案借阅申请/预约</t>
   </si>
   <si>
+    <t>3、档案借阅申请（主动借阅、申请借阅-预约）</t>
+  </si>
+  <si>
+    <t>主动借阅，选择借阅的文件，天数</t>
+  </si>
+  <si>
     <t>档案借阅审批</t>
   </si>
   <si>
+    <t>2、档案借阅审批</t>
+  </si>
+  <si>
+    <t>能看到这个菜单的人可以审批</t>
+  </si>
+  <si>
+    <t>借阅管理（+）</t>
+  </si>
+  <si>
+    <t>5、借阅管理（主动借阅、确认归还、显示是否逾期）</t>
+  </si>
+  <si>
     <t>档案转移</t>
   </si>
   <si>
+    <t>6、档案转移</t>
+  </si>
+  <si>
     <t>档案交接</t>
   </si>
   <si>
+    <t>7、档案交接</t>
+  </si>
+  <si>
     <t>档案打包及下载</t>
   </si>
   <si>
+    <t>8、档案打包下载</t>
+  </si>
+  <si>
     <t>一、系统管理</t>
   </si>
   <si>
@@ -453,10 +489,10 @@
     <t>部门管理员授权</t>
   </si>
   <si>
-    <t>？、部门管理员授权（系统管理员）争议，是否所有人都可以做</t>
-  </si>
-  <si>
-    <t>对文档的一级分类设置管理员</t>
+    <t>？、部门管理员授权（系统管理员）</t>
+  </si>
+  <si>
+    <t>对文档的一级分类设置管理员（是人就可以当）</t>
   </si>
   <si>
     <t>分类管理员授权</t>
@@ -480,10 +516,13 @@
     <t>按组织结构导出系统登录、点击、推送、阅读、下载、分享等统计分析结果</t>
   </si>
   <si>
+    <t>日志表（记录操作）</t>
+  </si>
+  <si>
     <t>审计日志导出</t>
   </si>
   <si>
-    <t>白黑名单管理</t>
+    <t>白黑名单管理（部门）</t>
   </si>
 </sst>
 </file>
@@ -527,7 +566,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,8 +602,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,8 +633,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,17 +651,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -617,31 +674,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,9 +695,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,19 +743,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,37 +899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,108 +912,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,11 +1077,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,17 +1131,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1101,32 +1166,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1140,152 +1179,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1343,6 +1382,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1367,22 +1409,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1716,17 +1749,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K72"/>
+  <dimension ref="B1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.8333333333333" style="1"/>
     <col min="2" max="2" width="24.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="61.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="68.8166666666667" style="3" customWidth="1"/>
     <col min="4" max="4" width="62.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
     <col min="6" max="10" width="10.8333333333333" style="1"/>
@@ -1858,7 +1891,6 @@
       <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -1904,7 +1936,7 @@
       <c r="C16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="14" t="s">
@@ -2104,12 +2136,10 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="7"/>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>57</v>
-      </c>
+      <c r="D28" s="20"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -2121,10 +2151,14 @@
     <row r="29" spans="2:11">
       <c r="B29" s="7"/>
       <c r="C29" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
@@ -2134,14 +2168,14 @@
     </row>
     <row r="30" ht="15" spans="2:11">
       <c r="B30" s="9"/>
-      <c r="C30" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="21" t="s">
+      <c r="C30" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="D30" s="22" t="s">
         <v>61</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -2152,26 +2186,26 @@
     </row>
     <row r="32" ht="15"/>
     <row r="33" spans="2:4">
-      <c r="B33" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="24" t="s">
+      <c r="B33" s="24" t="s">
         <v>63</v>
       </c>
+      <c r="C33" s="25" t="s">
+        <v>64</v>
+      </c>
       <c r="D33" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="25"/>
-      <c r="C34" s="26" t="s">
-        <v>65</v>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -2181,15 +2215,15 @@
       <c r="K34" s="16"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26" t="s">
-        <v>68</v>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -2199,15 +2233,15 @@
       <c r="K35" s="16"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="25"/>
-      <c r="C36" s="26" t="s">
-        <v>71</v>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -2217,15 +2251,15 @@
       <c r="K36" s="16"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="27"/>
-      <c r="C37" s="28" t="s">
-        <v>74</v>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -2235,15 +2269,15 @@
       <c r="K37" s="16"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="27"/>
-      <c r="C38" s="28" t="s">
-        <v>77</v>
+      <c r="B38" s="26"/>
+      <c r="C38" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -2253,33 +2287,33 @@
       <c r="K38" s="14"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="29"/>
-      <c r="C39" s="30" t="s">
-        <v>80</v>
+      <c r="B39" s="26"/>
+      <c r="C39" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
+      <c r="E39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
     </row>
     <row r="40" ht="15" spans="2:11">
-      <c r="B40" s="31"/>
-      <c r="C40" s="32" t="s">
-        <v>83</v>
+      <c r="B40" s="28"/>
+      <c r="C40" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -2298,13 +2332,18 @@
       <c r="K41" s="16"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="24" t="s">
+      <c r="B42" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="16"/>
+      <c r="C42" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
@@ -2313,11 +2352,16 @@
       <c r="K42" s="16"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="27"/>
-      <c r="C43" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" s="16"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
@@ -2326,11 +2370,16 @@
       <c r="K43" s="16"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="27"/>
-      <c r="C44" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="16"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
@@ -2338,70 +2387,77 @@
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="27"/>
-      <c r="C45" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="27"/>
-      <c r="C46" s="28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" ht="15" spans="2:3">
-      <c r="B47" s="31"/>
-      <c r="C47" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" ht="15"/>
-    <row r="49" spans="2:8">
-      <c r="B49" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="27"/>
-      <c r="C50" s="28" t="s">
+    <row r="45" spans="2:11">
+      <c r="B45" s="26"/>
+      <c r="C45" s="30" t="s">
         <v>97</v>
       </c>
+      <c r="D45" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="26"/>
+      <c r="C46" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="26"/>
+      <c r="C47" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="2:4">
+      <c r="B48" s="28"/>
+      <c r="C48" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" ht="15"/>
+    <row r="50" spans="2:8">
+      <c r="B50" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>106</v>
+      </c>
       <c r="D50" s="4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="27"/>
-      <c r="C51" s="28" t="s">
-        <v>100</v>
+      <c r="B51" s="26"/>
+      <c r="C51" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
@@ -2411,15 +2467,15 @@
       <c r="K51" s="16"/>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="27"/>
-      <c r="C52" s="28" t="s">
-        <v>103</v>
+      <c r="B52" s="26"/>
+      <c r="C52" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
@@ -2429,15 +2485,15 @@
       <c r="K52" s="16"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="27"/>
-      <c r="C53" s="28" t="s">
-        <v>106</v>
+      <c r="B53" s="26"/>
+      <c r="C53" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
@@ -2447,15 +2503,15 @@
       <c r="K53" s="16"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="27"/>
-      <c r="C54" s="28" t="s">
-        <v>109</v>
+      <c r="B54" s="26"/>
+      <c r="C54" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
@@ -2465,15 +2521,15 @@
       <c r="K54" s="16"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="27"/>
-      <c r="C55" s="28" t="s">
-        <v>112</v>
+      <c r="B55" s="26"/>
+      <c r="C55" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
@@ -2483,15 +2539,15 @@
       <c r="K55" s="16"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="27"/>
-      <c r="C56" s="28" t="s">
-        <v>115</v>
+      <c r="B56" s="26"/>
+      <c r="C56" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
@@ -2501,15 +2557,15 @@
       <c r="K56" s="16"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="27"/>
-      <c r="C57" s="28" t="s">
-        <v>118</v>
+      <c r="B57" s="26"/>
+      <c r="C57" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
@@ -2519,15 +2575,15 @@
       <c r="K57" s="16"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="27"/>
-      <c r="C58" s="28" t="s">
-        <v>121</v>
+      <c r="B58" s="26"/>
+      <c r="C58" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
@@ -2537,9 +2593,16 @@
       <c r="K58" s="16"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="27"/>
-      <c r="C59" s="28"/>
-      <c r="E59" s="16"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
@@ -2548,16 +2611,9 @@
       <c r="K59" s="16"/>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="27"/>
-      <c r="C60" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>126</v>
-      </c>
+      <c r="B60" s="26"/>
+      <c r="C60" s="27"/>
+      <c r="E60" s="16"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
@@ -2566,15 +2622,15 @@
       <c r="K60" s="16"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="27"/>
-      <c r="C61" s="28" t="s">
-        <v>127</v>
+      <c r="B61" s="26"/>
+      <c r="C61" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
@@ -2584,15 +2640,15 @@
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="27"/>
-      <c r="C62" s="28" t="s">
-        <v>129</v>
+      <c r="B62" s="26"/>
+      <c r="C62" s="27" t="s">
+        <v>139</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
@@ -2602,15 +2658,15 @@
       <c r="K62" s="16"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="27"/>
-      <c r="C63" s="28" t="s">
-        <v>132</v>
+      <c r="B63" s="26"/>
+      <c r="C63" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
@@ -2620,15 +2676,15 @@
       <c r="K63" s="16"/>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" s="27"/>
-      <c r="C64" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="33" t="s">
-        <v>136</v>
+      <c r="B64" s="26"/>
+      <c r="C64" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
@@ -2637,16 +2693,16 @@
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" ht="15" spans="2:11">
-      <c r="B65" s="31"/>
-      <c r="C65" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>139</v>
+    <row r="65" spans="2:11">
+      <c r="B65" s="26"/>
+      <c r="C65" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>148</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
@@ -2655,8 +2711,17 @@
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" ht="15" spans="5:11">
-      <c r="E66" s="16"/>
+    <row r="66" ht="15" spans="2:11">
+      <c r="B66" s="28"/>
+      <c r="C66" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
@@ -2664,13 +2729,7 @@
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="2:11">
-      <c r="B67" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>142</v>
-      </c>
+    <row r="67" ht="15" spans="5:11">
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
@@ -2680,9 +2739,11 @@
       <c r="K67" s="16"/>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="27"/>
-      <c r="C68" s="35" t="s">
-        <v>143</v>
+      <c r="B68" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
@@ -2693,9 +2754,9 @@
       <c r="K68" s="16"/>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="27"/>
-      <c r="C69" s="35" t="s">
-        <v>144</v>
+      <c r="B69" s="26"/>
+      <c r="C69" s="33" t="s">
+        <v>155</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
@@ -2706,9 +2767,12 @@
       <c r="K69" s="16"/>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="27"/>
-      <c r="C70" s="35" t="s">
-        <v>145</v>
+      <c r="B70" s="26"/>
+      <c r="C70" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
@@ -2718,10 +2782,10 @@
       <c r="J70" s="16"/>
       <c r="K70" s="16"/>
     </row>
-    <row r="71" ht="15" spans="2:11">
-      <c r="B71" s="31"/>
-      <c r="C71" s="36" t="s">
-        <v>146</v>
+    <row r="71" spans="2:11">
+      <c r="B71" s="26"/>
+      <c r="C71" s="33" t="s">
+        <v>158</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
@@ -2731,7 +2795,11 @@
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="5:11">
+    <row r="72" spans="2:11">
+      <c r="B72" s="28"/>
+      <c r="C72" s="34" t="s">
+        <v>159</v>
+      </c>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
@@ -2739,6 +2807,15 @@
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
       <c r="K72" s="16"/>
+    </row>
+    <row r="73" spans="5:11">
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="63">
@@ -2775,8 +2852,7 @@
     <mergeCell ref="E42:K42"/>
     <mergeCell ref="E43:K43"/>
     <mergeCell ref="E44:K44"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E50:K50"/>
+    <mergeCell ref="E50:H50"/>
     <mergeCell ref="E51:K51"/>
     <mergeCell ref="E52:K52"/>
     <mergeCell ref="E53:K53"/>
@@ -2785,7 +2861,7 @@
     <mergeCell ref="E56:K56"/>
     <mergeCell ref="E57:K57"/>
     <mergeCell ref="E58:K58"/>
-    <mergeCell ref="E60:K60"/>
+    <mergeCell ref="E59:K59"/>
     <mergeCell ref="E61:K61"/>
     <mergeCell ref="E62:K62"/>
     <mergeCell ref="E63:K63"/>
@@ -2798,12 +2874,13 @@
     <mergeCell ref="E70:K70"/>
     <mergeCell ref="E71:K71"/>
     <mergeCell ref="E72:K72"/>
+    <mergeCell ref="E73:K73"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B9:B30"/>
     <mergeCell ref="B33:B40"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B49:B65"/>
-    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="B50:B66"/>
+    <mergeCell ref="B68:B72"/>
     <mergeCell ref="D12:D13"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IDCO云服务/一期讨论/iDoc Cloud功能清单.xlsx
+++ b/IDCO云服务/一期讨论/iDoc Cloud功能清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765"/>
+    <workbookView windowWidth="23040" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="iDoc Cloud一期功能列表" sheetId="1" r:id="rId1"/>
@@ -555,13 +555,6 @@
       <sz val="12"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -633,6 +626,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -687,7 +687,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -695,13 +701,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -725,31 +725,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,7 +809,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,55 +827,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,6 +839,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -845,67 +881,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,152 +1179,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1364,35 +1364,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1751,8 +1745,8 @@
   <sheetPr/>
   <dimension ref="B1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1873,7 +1867,7 @@
       <c r="C12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="16" t="s">
@@ -1891,6 +1885,7 @@
       <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
+      <c r="D13" s="17"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -1917,10 +1912,10 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="7"/>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="16"/>
@@ -1933,10 +1928,10 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="7"/>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="14" t="s">
@@ -1951,10 +1946,10 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="7"/>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="16"/>
@@ -1967,10 +1962,10 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="7"/>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="17" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="16"/>
@@ -1983,10 +1978,10 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="7"/>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="16" t="s">
@@ -2001,10 +1996,10 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="7"/>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="16" t="s">
@@ -2019,9 +2014,10 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="7"/>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="19" t="s">
         <v>39</v>
       </c>
+      <c r="D21" s="17"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -2032,10 +2028,10 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="7"/>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="16" t="s">
@@ -2050,10 +2046,10 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="7"/>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -2068,10 +2064,10 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="7"/>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="17" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="16" t="s">
@@ -2086,10 +2082,10 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="7"/>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="17" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="16" t="s">
@@ -2104,7 +2100,7 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="7"/>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -2120,10 +2116,10 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="7"/>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="16"/>
@@ -2136,10 +2132,10 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="7"/>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -2150,7 +2146,7 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="7"/>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -2168,13 +2164,13 @@
     </row>
     <row r="30" ht="15" spans="2:11">
       <c r="B30" s="9"/>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="21" t="s">
         <v>62</v>
       </c>
       <c r="F30" s="16"/>
@@ -2186,10 +2182,10 @@
     </row>
     <row r="32" ht="15"/>
     <row r="33" spans="2:4">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="23" t="s">
         <v>64</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -2197,8 +2193,8 @@
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="26"/>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="25" t="s">
         <v>66</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -2215,8 +2211,8 @@
       <c r="K34" s="16"/>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="26"/>
-      <c r="C35" s="27" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="25" t="s">
         <v>69</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -2233,8 +2229,8 @@
       <c r="K35" s="16"/>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="26"/>
-      <c r="C36" s="27" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25" t="s">
         <v>72</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -2251,8 +2247,8 @@
       <c r="K36" s="16"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="26"/>
-      <c r="C37" s="27" t="s">
+      <c r="B37" s="24"/>
+      <c r="C37" s="25" t="s">
         <v>75</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2269,8 +2265,8 @@
       <c r="K37" s="16"/>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="26"/>
-      <c r="C38" s="27" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="25" t="s">
         <v>78</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -2287,8 +2283,8 @@
       <c r="K38" s="14"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="26"/>
-      <c r="C39" s="27" t="s">
+      <c r="B39" s="24"/>
+      <c r="C39" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -2305,8 +2301,8 @@
       <c r="K39" s="4"/>
     </row>
     <row r="40" ht="15" spans="2:11">
-      <c r="B40" s="28"/>
-      <c r="C40" s="29" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="27" t="s">
         <v>84</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -2332,10 +2328,10 @@
       <c r="K41" s="16"/>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="23" t="s">
         <v>88</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -2352,8 +2348,8 @@
       <c r="K42" s="16"/>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" s="26"/>
-      <c r="C43" s="27" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="25" t="s">
         <v>91</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -2370,8 +2366,8 @@
       <c r="K43" s="16"/>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="26"/>
-      <c r="C44" s="27" t="s">
+      <c r="B44" s="24"/>
+      <c r="C44" s="25" t="s">
         <v>94</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -2388,11 +2384,11 @@
       <c r="K44" s="16"/>
     </row>
     <row r="45" spans="2:11">
-      <c r="B45" s="26"/>
-      <c r="C45" s="30" t="s">
+      <c r="B45" s="24"/>
+      <c r="C45" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="29" t="s">
         <v>98</v>
       </c>
       <c r="E45" s="16"/>
@@ -2404,8 +2400,8 @@
       <c r="K45" s="16"/>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="26"/>
-      <c r="C46" s="27" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="25" t="s">
         <v>99</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -2413,8 +2409,8 @@
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="26"/>
-      <c r="C47" s="27" t="s">
+      <c r="B47" s="24"/>
+      <c r="C47" s="25" t="s">
         <v>101</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -2422,8 +2418,8 @@
       </c>
     </row>
     <row r="48" ht="15" spans="2:4">
-      <c r="B48" s="28"/>
-      <c r="C48" s="29" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="27" t="s">
         <v>103</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -2432,10 +2428,10 @@
     </row>
     <row r="49" ht="15"/>
     <row r="50" spans="2:8">
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="23" t="s">
         <v>106</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -2449,8 +2445,8 @@
       <c r="H50" s="16"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="26"/>
-      <c r="C51" s="27" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="25" t="s">
         <v>109</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -2467,8 +2463,8 @@
       <c r="K51" s="16"/>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="26"/>
-      <c r="C52" s="27" t="s">
+      <c r="B52" s="24"/>
+      <c r="C52" s="25" t="s">
         <v>112</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -2485,8 +2481,8 @@
       <c r="K52" s="16"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="26"/>
-      <c r="C53" s="27" t="s">
+      <c r="B53" s="24"/>
+      <c r="C53" s="25" t="s">
         <v>115</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -2503,8 +2499,8 @@
       <c r="K53" s="16"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="26"/>
-      <c r="C54" s="27" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="25" t="s">
         <v>118</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -2521,8 +2517,8 @@
       <c r="K54" s="16"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="26"/>
-      <c r="C55" s="27" t="s">
+      <c r="B55" s="24"/>
+      <c r="C55" s="25" t="s">
         <v>121</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -2539,8 +2535,8 @@
       <c r="K55" s="16"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="26"/>
-      <c r="C56" s="27" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="25" t="s">
         <v>124</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -2557,8 +2553,8 @@
       <c r="K56" s="16"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="26"/>
-      <c r="C57" s="27" t="s">
+      <c r="B57" s="24"/>
+      <c r="C57" s="25" t="s">
         <v>127</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -2575,8 +2571,8 @@
       <c r="K57" s="16"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="26"/>
-      <c r="C58" s="27" t="s">
+      <c r="B58" s="24"/>
+      <c r="C58" s="25" t="s">
         <v>130</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -2593,8 +2589,8 @@
       <c r="K58" s="16"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="26"/>
-      <c r="C59" s="27" t="s">
+      <c r="B59" s="24"/>
+      <c r="C59" s="25" t="s">
         <v>133</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -2611,8 +2607,8 @@
       <c r="K59" s="16"/>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="26"/>
-      <c r="C60" s="27"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
@@ -2622,8 +2618,8 @@
       <c r="K60" s="16"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="26"/>
-      <c r="C61" s="27" t="s">
+      <c r="B61" s="24"/>
+      <c r="C61" s="25" t="s">
         <v>136</v>
       </c>
       <c r="D61" s="4" t="s">
@@ -2640,8 +2636,8 @@
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="26"/>
-      <c r="C62" s="27" t="s">
+      <c r="B62" s="24"/>
+      <c r="C62" s="25" t="s">
         <v>139</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -2658,8 +2654,8 @@
       <c r="K62" s="16"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="26"/>
-      <c r="C63" s="27" t="s">
+      <c r="B63" s="24"/>
+      <c r="C63" s="25" t="s">
         <v>141</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -2676,8 +2672,8 @@
       <c r="K63" s="16"/>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" s="26"/>
-      <c r="C64" s="27" t="s">
+      <c r="B64" s="24"/>
+      <c r="C64" s="25" t="s">
         <v>144</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -2694,11 +2690,11 @@
       <c r="K64" s="16"/>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="26"/>
-      <c r="C65" s="27" t="s">
+      <c r="B65" s="24"/>
+      <c r="C65" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="29" t="s">
         <v>148</v>
       </c>
       <c r="E65" s="16" t="s">
@@ -2712,8 +2708,8 @@
       <c r="K65" s="16"/>
     </row>
     <row r="66" ht="15" spans="2:11">
-      <c r="B66" s="28"/>
-      <c r="C66" s="29" t="s">
+      <c r="B66" s="26"/>
+      <c r="C66" s="27" t="s">
         <v>150</v>
       </c>
       <c r="D66" s="4" t="s">
@@ -2739,10 +2735,10 @@
       <c r="K67" s="16"/>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="30" t="s">
         <v>154</v>
       </c>
       <c r="E68" s="16"/>
@@ -2754,8 +2750,8 @@
       <c r="K68" s="16"/>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="26"/>
-      <c r="C69" s="33" t="s">
+      <c r="B69" s="24"/>
+      <c r="C69" s="31" t="s">
         <v>155</v>
       </c>
       <c r="E69" s="16"/>
@@ -2767,8 +2763,8 @@
       <c r="K69" s="16"/>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="26"/>
-      <c r="C70" s="33" t="s">
+      <c r="B70" s="24"/>
+      <c r="C70" s="31" t="s">
         <v>156</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -2783,8 +2779,8 @@
       <c r="K70" s="16"/>
     </row>
     <row r="71" spans="2:11">
-      <c r="B71" s="26"/>
-      <c r="C71" s="33" t="s">
+      <c r="B71" s="24"/>
+      <c r="C71" s="31" t="s">
         <v>158</v>
       </c>
       <c r="E71" s="16"/>
@@ -2795,9 +2791,9 @@
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="2:11">
-      <c r="B72" s="28"/>
-      <c r="C72" s="34" t="s">
+    <row r="72" ht="15" spans="2:11">
+      <c r="B72" s="26"/>
+      <c r="C72" s="32" t="s">
         <v>159</v>
       </c>
       <c r="E72" s="16"/>

--- a/IDCO云服务/一期讨论/iDoc Cloud功能清单.xlsx
+++ b/IDCO云服务/一期讨论/iDoc Cloud功能清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="7125"/>
+    <workbookView windowWidth="24000" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="iDoc Cloud一期功能列表" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
     <t>项目角色管理</t>
   </si>
   <si>
-    <t>2、项目角色管理（系统管理员）</t>
+    <t>2、项目角色管理（PMO管理员）</t>
   </si>
   <si>
     <t>设置项目角色，如：项目经理，副经理，组员。问题是：角色都要绑定到一级分类吗？不能统一角色？</t>
@@ -291,7 +291,7 @@
     <t>SDT成员管理</t>
   </si>
   <si>
-    <t>3、SDT成员管理（）</t>
+    <t>3、SDT成员管理</t>
   </si>
   <si>
     <t>项目的成员添加，并绑定角色</t>
@@ -773,145 +773,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,145 +1182,145 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1745,8 +1745,8 @@
   <sheetPr/>
   <dimension ref="B1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2188,7 +2188,7 @@
       <c r="C33" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       <c r="C34" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="17" t="s">
         <v>67</v>
       </c>
       <c r="E34" s="16" t="s">
@@ -2269,7 +2269,7 @@
       <c r="C38" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="17" t="s">
         <v>79</v>
       </c>
       <c r="E38" s="14" t="s">
@@ -2287,7 +2287,7 @@
       <c r="C39" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="17" t="s">
         <v>82</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -2300,12 +2300,12 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" ht="15" spans="2:11">
+    <row r="40" spans="2:11">
       <c r="B40" s="26"/>
       <c r="C40" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="17" t="s">
         <v>85</v>
       </c>
       <c r="E40" s="16" t="s">
